--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,12 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名校贷专科包注册、借款
-名校贷普通包注册、借款
-名校贷应急包注册、借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,21 +122,12 @@
     <t>smsCode_apply</t>
   </si>
   <si>
-    <t>int_productIndex_apply</t>
-  </si>
-  <si>
-    <t>int_pieces_apply</t>
-  </si>
-  <si>
     <t>email_improve</t>
   </si>
   <si>
     <t>address_improve</t>
   </si>
   <si>
-    <t>income_index_improve</t>
-  </si>
-  <si>
     <t>parentName_improve</t>
   </si>
   <si>
@@ -187,10 +172,6 @@
   </si>
   <si>
     <t>smsCode_improve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdjjdk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>838388@192.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海市浦东新区张东路1158弄</t>
     <rPh sb="0" eb="1">
       <t>shang'h</t>
@@ -354,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘6013826015002710000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国工商银行</t>
     <rPh sb="0" eb="1">
       <t>zhong'g</t>
@@ -368,6 +341,298 @@
     <rPh sb="4" eb="5">
       <t>yin'h</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150000010187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>838388@192.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13100000123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13100001234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13100001003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13100001004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13100001005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18663049557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png/id.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6013826015002711858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norelco99887722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2299900042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18100003052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <rPh sb="0" eb="1">
+      <t>ben'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科普通包</t>
+    <rPh sb="0" eb="1">
+      <t>ben'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pu'tong'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科应急包</t>
+    <rPh sb="0" eb="1">
+      <t>ben'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productIndex_apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productIndex_apply ---1:普通包，2：应急包，3：白领包，4：专科包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pieces_apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pieces_apply代表期数</t>
+    <rPh sb="12" eb="13">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qi'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'838388@192.com</t>
+  </si>
+  <si>
+    <t>income_index_improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income_index_improve代表家庭收入1低于5万，2代表5-10万，3代表10-20万，4代表大于20万</t>
+    <rPh sb="20" eb="21">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jia't</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shou'ru</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>di'yu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>da'yu</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科专科包</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科应急包</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norelco99887779</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2299900049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18100003059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norelco99887730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2299900050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18100003060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norelco99887780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2299900080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18100003080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,12 +693,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="H32:I32"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -785,6 +1050,7 @@
     <col min="37" max="38" width="20.6640625" customWidth="1"/>
     <col min="39" max="39" width="23" customWidth="1"/>
     <col min="40" max="42" width="20.6640625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
@@ -792,262 +1058,658 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>43</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>47</v>
       </c>
       <c r="AQ1" t="s">
         <v>4</v>
       </c>
       <c r="AR1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
-        <v>2234213412</v>
-      </c>
-      <c r="D2">
-        <v>18100003003</v>
-      </c>
-      <c r="E2">
-        <v>615</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="K2">
-        <v>2015</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
         <v>54</v>
       </c>
-      <c r="M2">
-        <v>20150000010187</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="R2">
-        <v>615</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="V2">
-        <v>615</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="1">
-        <v>13100000123</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>13100001234</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="1">
-        <v>13100001003</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2">
-        <v>13100001004</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AK2">
-        <v>13100001005</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AF3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AO2">
-        <v>18663049557</v>
-      </c>
-      <c r="AP2">
-        <v>1615</v>
-      </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2">
-        <v>11</v>
+      <c r="AH3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1062,18 +1724,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,15 +1744,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/git/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37028219921030111X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理学</t>
     <rPh sb="0" eb="1">
       <t>guan'l</t>
@@ -412,23 +408,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6013826015002711858</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Norelco99887722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003052</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,55 +564,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${QQUtils.genUnRegisterQQ()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Norelco99887779</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Norelco99887730</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Norelco99887780</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +963,7 @@
   <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1121,10 +1077,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -1133,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1192,16 +1148,16 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1219,121 +1175,121 @@
         <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>50</v>
       </c>
       <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN2" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1351,120 +1307,120 @@
         <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>50</v>
       </c>
       <c r="O3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>54</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD3" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN3" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AL3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="AP3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1482,120 +1438,120 @@
         <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
         <v>50</v>
       </c>
       <c r="O4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AN4" t="s">
         <v>61</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AL4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="AP4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AR4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1613,103 +1569,103 @@
         <v>48</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
         <v>50</v>
       </c>
       <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>54</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z5" t="s">
         <v>55</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AA5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" t="s">
         <v>57</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>59</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AJ5" t="s">
         <v>60</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN5" t="s">
         <v>61</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AL5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="AP5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AR5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1760,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1768,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,14 +581,6 @@
   </si>
   <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1137,7 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>100</v>
@@ -1408,7 +1400,7 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>100</v>
@@ -1539,7 +1531,7 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>100</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -572,15 +572,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${RandomUtils.generateUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +955,7 @@
   <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>99</v>
@@ -1179,7 +1179,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" t="s">
         <v>51</v>
@@ -1251,7 +1251,7 @@
         <v>78</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="s">
         <v>61</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>99</v>
@@ -1311,7 +1311,7 @@
         <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" t="s">
         <v>51</v>
@@ -1383,7 +1383,7 @@
         <v>78</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="s">
         <v>61</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
@@ -1442,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4" t="s">
         <v>51</v>
@@ -1514,7 +1514,7 @@
         <v>78</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="s">
         <v>61</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>99</v>
@@ -1573,7 +1573,7 @@
         <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P5" t="s">
         <v>51</v>
@@ -1645,7 +1645,7 @@
         <v>78</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="s">
         <v>61</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/git/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,17 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本科</t>
-    <rPh sb="0" eb="1">
-      <t>ben'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本科普通包</t>
     <rPh sb="0" eb="1">
       <t>ben'k</t>
@@ -433,32 +417,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本科应急包</t>
-    <rPh sb="0" eb="1">
-      <t>ben'k</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ying'j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>productIndex_apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>productIndex_apply ---1:普通包，2：应急包，3：白领包，4：专科包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -476,9 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'838388@192.com</t>
-  </si>
-  <si>
     <t>income_index_improve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,47 +479,6 @@
     </rPh>
     <rPh sb="58" eb="59">
       <t>wan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专科专科包</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'k</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuan'k</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专科应急包</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'k</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ying'j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专科</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'k</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,8 +506,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,56 +871,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.5" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
     <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" customWidth="1"/>
+    <col min="24" max="24" width="16.125" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
     <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="21.33203125" customWidth="1"/>
-    <col min="28" max="28" width="20.6640625" customWidth="1"/>
-    <col min="29" max="29" width="18.83203125" customWidth="1"/>
-    <col min="30" max="30" width="21.6640625" customWidth="1"/>
+    <col min="27" max="27" width="21.375" customWidth="1"/>
+    <col min="28" max="28" width="20.625" customWidth="1"/>
+    <col min="29" max="29" width="18.875" customWidth="1"/>
+    <col min="30" max="30" width="21.625" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" customWidth="1"/>
+    <col min="32" max="32" width="18.625" customWidth="1"/>
+    <col min="33" max="33" width="19.375" customWidth="1"/>
+    <col min="34" max="34" width="18.625" customWidth="1"/>
     <col min="35" max="35" width="21.5" customWidth="1"/>
-    <col min="36" max="36" width="22.6640625" customWidth="1"/>
-    <col min="37" max="38" width="20.6640625" customWidth="1"/>
+    <col min="36" max="36" width="22.625" customWidth="1"/>
+    <col min="37" max="38" width="20.625" customWidth="1"/>
     <col min="39" max="39" width="23" customWidth="1"/>
-    <col min="40" max="42" width="20.6640625" customWidth="1"/>
+    <col min="40" max="42" width="20.625" customWidth="1"/>
     <col min="44" max="44" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,10 +988,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="X1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -1081,7 +1000,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1135,18 +1054,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>75</v>
@@ -1179,7 +1098,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
         <v>51</v>
@@ -1251,7 +1170,7 @@
         <v>78</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s">
         <v>61</v>
@@ -1264,400 +1183,7 @@
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" t="s">
         <v>80</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1678,13 +1204,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1692,31 +1218,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="66.95" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="35.1" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="32.1" customHeight="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11865" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -399,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>png/id.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,6 +497,10 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png/id.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -988,10 +989,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -1000,7 +1001,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1059,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>75</v>
@@ -1098,7 +1099,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
         <v>51</v>
@@ -1167,10 +1168,10 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s">
         <v>61</v>
@@ -1179,11 +1180,11 @@
         <v>71</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1234,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1">
@@ -1242,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11865" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,11 +559,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -941,7 +938,7 @@
   <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1519,7 +1516,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -11,7 +11,6 @@
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="109">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,7 +562,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-名校贷应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,724 +950,742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="15.375" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.875" customWidth="1"/>
-    <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="16.125" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="21.375" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="29" max="29" width="18.875" customWidth="1"/>
-    <col min="30" max="30" width="21.625" customWidth="1"/>
-    <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="18.625" customWidth="1"/>
-    <col min="33" max="33" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="21.625" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="17" max="17" width="18.875" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="15.375" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="13.875" customWidth="1"/>
+    <col min="25" max="25" width="20" customWidth="1"/>
+    <col min="26" max="26" width="16.125" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="25" customWidth="1"/>
+    <col min="29" max="29" width="21.375" customWidth="1"/>
+    <col min="30" max="30" width="20.625" customWidth="1"/>
+    <col min="31" max="31" width="18.875" customWidth="1"/>
+    <col min="32" max="32" width="21.625" customWidth="1"/>
+    <col min="33" max="33" width="22" customWidth="1"/>
     <col min="34" max="34" width="18.625" customWidth="1"/>
-    <col min="35" max="35" width="21.5" customWidth="1"/>
-    <col min="36" max="36" width="22.625" customWidth="1"/>
-    <col min="37" max="38" width="20.625" customWidth="1"/>
-    <col min="39" max="39" width="23" customWidth="1"/>
-    <col min="40" max="42" width="20.625" customWidth="1"/>
-    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="35" max="35" width="19.375" customWidth="1"/>
+    <col min="36" max="36" width="18.625" customWidth="1"/>
+    <col min="37" max="37" width="21.5" customWidth="1"/>
+    <col min="38" max="38" width="22.625" customWidth="1"/>
+    <col min="39" max="40" width="20.625" customWidth="1"/>
+    <col min="41" max="41" width="23" customWidth="1"/>
+    <col min="42" max="44" width="20.625" customWidth="1"/>
+    <col min="46" max="46" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>72</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>91</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>81</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>85</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>58</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" t="s">
+      <c r="AS2" s="3"/>
+      <c r="AT2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>90</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>81</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>85</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>56</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>83</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" t="s">
+      <c r="AS3" s="3"/>
+      <c r="AT3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>91</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>81</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>85</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>55</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>57</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>83</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>58</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" t="s">
+      <c r="AS4" s="3"/>
+      <c r="AT4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>91</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>81</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>85</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>54</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AJ5" t="s">
         <v>56</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
         <v>57</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AN5" t="s">
         <v>83</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>58</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" t="s">
+      <c r="AS5" s="3"/>
+      <c r="AT5" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1"/>
-    <hyperlink ref="Y3" r:id="rId2"/>
-    <hyperlink ref="Y4" r:id="rId3"/>
-    <hyperlink ref="Y5" r:id="rId4"/>
+    <hyperlink ref="AA2" r:id="rId1"/>
+    <hyperlink ref="AA3" r:id="rId2"/>
+    <hyperlink ref="AA4" r:id="rId3"/>
+    <hyperlink ref="AA5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +579,34 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-名校贷应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT5"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -995,11 +1023,11 @@
     <col min="38" max="38" width="22.625" customWidth="1"/>
     <col min="39" max="40" width="20.625" customWidth="1"/>
     <col min="41" max="41" width="23" customWidth="1"/>
-    <col min="42" max="44" width="20.625" customWidth="1"/>
-    <col min="46" max="46" width="13" customWidth="1"/>
+    <col min="42" max="45" width="20.625" customWidth="1"/>
+    <col min="47" max="47" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,18 +1161,24 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT1" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -1269,18 +1303,24 @@
       <c r="AR2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT2" s="3"/>
+      <c r="AU2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>106</v>
       </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
       <c r="D3" t="s">
         <v>82</v>
       </c>
@@ -1404,18 +1444,24 @@
       <c r="AR3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AS3" s="3"/>
-      <c r="AT3" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT3" s="3"/>
+      <c r="AU3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
       </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
       <c r="D4" t="s">
         <v>82</v>
       </c>
@@ -1539,18 +1585,24 @@
       <c r="AR4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AS4" s="3"/>
-      <c r="AT4" t="s">
+      <c r="AS4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT4" s="3"/>
+      <c r="AU4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:47">
       <c r="A5" t="s">
         <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
       </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
       <c r="D5" t="s">
         <v>82</v>
       </c>
@@ -1674,8 +1726,11 @@
       <c r="AR5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AS5" s="3"/>
-      <c r="AT5" t="s">
+      <c r="AS5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT5" s="3"/>
+      <c r="AU5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="127">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +607,74 @@
   </si>
   <si>
     <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-名校贷大额借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训助学</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gou'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训助学培训助学培训助学</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gou'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'f</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gou'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao'f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,53 +1046,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="21.625" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
-    <col min="17" max="17" width="18.875" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="15.375" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="13.875" customWidth="1"/>
-    <col min="25" max="25" width="20" customWidth="1"/>
-    <col min="26" max="26" width="16.125" customWidth="1"/>
-    <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="28" max="28" width="25" customWidth="1"/>
-    <col min="29" max="29" width="21.375" customWidth="1"/>
-    <col min="30" max="30" width="20.625" customWidth="1"/>
-    <col min="31" max="31" width="18.875" customWidth="1"/>
-    <col min="32" max="32" width="21.625" customWidth="1"/>
-    <col min="33" max="33" width="22" customWidth="1"/>
-    <col min="34" max="34" width="18.625" customWidth="1"/>
-    <col min="35" max="35" width="19.375" customWidth="1"/>
-    <col min="36" max="36" width="18.625" customWidth="1"/>
-    <col min="37" max="37" width="21.5" customWidth="1"/>
-    <col min="38" max="38" width="22.625" customWidth="1"/>
-    <col min="39" max="40" width="20.625" customWidth="1"/>
-    <col min="41" max="41" width="23" customWidth="1"/>
-    <col min="42" max="45" width="20.625" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1731,6 +1807,570 @@
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT6" s="3"/>
+      <c r="AU6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" t="s">
+        <v>97</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT7" s="3"/>
+      <c r="AU7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT8" s="3"/>
+      <c r="AU8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1741,9 +2381,13 @@
     <hyperlink ref="AA3" r:id="rId2"/>
     <hyperlink ref="AA4" r:id="rId3"/>
     <hyperlink ref="AA5" r:id="rId4"/>
+    <hyperlink ref="AA6" r:id="rId5"/>
+    <hyperlink ref="AA7" r:id="rId6"/>
+    <hyperlink ref="AA8" r:id="rId7"/>
+    <hyperlink ref="AA9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="126">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,10 +671,6 @@
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1045,7 @@
   <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1812,7 +1808,7 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -1953,7 +1949,7 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -2094,7 +2090,7 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -2235,7 +2231,7 @@
     </row>
     <row r="9" spans="1:47">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="127">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,6 +671,10 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1049,7 @@
   <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1808,7 +1812,7 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -1949,7 +1953,7 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -2090,7 +2094,7 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -2231,7 +2235,7 @@
     </row>
     <row r="9" spans="1:47">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -414,23 +414,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${QQUtils.genUnRegisterQQ()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,6 +663,18 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1057,7 +1057,7 @@
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="34.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1070,7 +1070,7 @@
     <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1237,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AT1" t="s">
         <v>4</v>
@@ -1251,19 +1251,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>69</v>
@@ -1284,19 +1284,19 @@
         <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
         <v>50</v>
@@ -1308,22 +1308,22 @@
         <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>61</v>
@@ -1365,10 +1365,10 @@
         <v>66</v>
       </c>
       <c r="AN2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP2" t="s">
         <v>58</v>
@@ -1380,31 +1380,31 @@
         <v>71</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT2" s="3"/>
       <c r="AU2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>69</v>
@@ -1425,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>49</v>
@@ -1434,10 +1434,10 @@
         <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R3" t="s">
         <v>50</v>
@@ -1449,22 +1449,22 @@
         <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>61</v>
@@ -1506,10 +1506,10 @@
         <v>66</v>
       </c>
       <c r="AN3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP3" t="s">
         <v>58</v>
@@ -1521,31 +1521,31 @@
         <v>60</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT3" s="3"/>
       <c r="AU3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:47">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -1566,19 +1566,19 @@
         <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R4" t="s">
         <v>50</v>
@@ -1590,22 +1590,22 @@
         <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>61</v>
@@ -1647,10 +1647,10 @@
         <v>66</v>
       </c>
       <c r="AN4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP4" t="s">
         <v>58</v>
@@ -1662,31 +1662,31 @@
         <v>60</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT4" s="3"/>
       <c r="AU4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>69</v>
@@ -1707,19 +1707,19 @@
         <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R5" t="s">
         <v>50</v>
@@ -1731,22 +1731,22 @@
         <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>61</v>
@@ -1788,10 +1788,10 @@
         <v>66</v>
       </c>
       <c r="AN5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP5" t="s">
         <v>58</v>
@@ -1803,31 +1803,31 @@
         <v>60</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:47">
       <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>69</v>
@@ -1848,19 +1848,19 @@
         <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R6" t="s">
         <v>50</v>
@@ -1872,22 +1872,22 @@
         <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>61</v>
@@ -1929,10 +1929,10 @@
         <v>66</v>
       </c>
       <c r="AN6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP6" t="s">
         <v>58</v>
@@ -1944,31 +1944,31 @@
         <v>60</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT6" s="3"/>
       <c r="AU6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:47">
       <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>69</v>
@@ -1989,7 +1989,7 @@
         <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>49</v>
@@ -1998,10 +1998,10 @@
         <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q7" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R7" t="s">
         <v>50</v>
@@ -2013,22 +2013,22 @@
         <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>61</v>
@@ -2070,10 +2070,10 @@
         <v>66</v>
       </c>
       <c r="AN7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP7" t="s">
         <v>58</v>
@@ -2085,31 +2085,31 @@
         <v>60</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT7" s="3"/>
       <c r="AU7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:47">
       <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>69</v>
@@ -2130,19 +2130,19 @@
         <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R8" t="s">
         <v>50</v>
@@ -2154,22 +2154,22 @@
         <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>61</v>
@@ -2211,10 +2211,10 @@
         <v>66</v>
       </c>
       <c r="AN8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP8" t="s">
         <v>58</v>
@@ -2226,31 +2226,31 @@
         <v>60</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT8" s="3"/>
       <c r="AU8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:47">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>69</v>
@@ -2271,19 +2271,19 @@
         <v>48</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R9" t="s">
         <v>50</v>
@@ -2295,22 +2295,22 @@
         <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>61</v>
@@ -2352,10 +2352,10 @@
         <v>66</v>
       </c>
       <c r="AN9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP9" t="s">
         <v>58</v>
@@ -2367,11 +2367,11 @@
         <v>60</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AT9" s="3"/>
       <c r="AU9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsTestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="129">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-名校贷应急贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,35 +566,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-名校贷应急贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专科借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硕士借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博士借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-名校贷大额借</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,6 +647,42 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科借款应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科借款应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士借款应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士借款应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科借款应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士借款应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士借款应急贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-贷款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,17 +1057,17 @@
   <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
@@ -1237,7 +1245,7 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AT1" t="s">
         <v>4</v>
@@ -1251,19 +1259,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>69</v>
@@ -1296,7 +1304,7 @@
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R2" t="s">
         <v>50</v>
@@ -1380,7 +1388,7 @@
         <v>71</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="3"/>
       <c r="AU2" t="s">
@@ -1392,19 +1400,19 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>69</v>
@@ -1437,7 +1445,7 @@
         <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R3" t="s">
         <v>50</v>
@@ -1521,7 +1529,7 @@
         <v>60</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT3" s="3"/>
       <c r="AU3" t="s">
@@ -1530,22 +1538,22 @@
     </row>
     <row r="4" spans="1:47">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -1578,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R4" t="s">
         <v>50</v>
@@ -1662,7 +1670,7 @@
         <v>60</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT4" s="3"/>
       <c r="AU4" t="s">
@@ -1671,22 +1679,22 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>69</v>
@@ -1719,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R5" t="s">
         <v>50</v>
@@ -1803,7 +1811,7 @@
         <v>60</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" t="s">
@@ -1812,22 +1820,22 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>69</v>
@@ -1860,7 +1868,7 @@
         <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R6" t="s">
         <v>50</v>
@@ -1872,13 +1880,13 @@
         <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="V6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>69</v>
@@ -1887,7 +1895,7 @@
         <v>85</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>61</v>
@@ -1944,7 +1952,7 @@
         <v>60</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT6" s="3"/>
       <c r="AU6" t="s">
@@ -1953,22 +1961,22 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>69</v>
@@ -2001,7 +2009,7 @@
         <v>87</v>
       </c>
       <c r="Q7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R7" t="s">
         <v>50</v>
@@ -2028,7 +2036,7 @@
         <v>85</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>61</v>
@@ -2085,7 +2093,7 @@
         <v>60</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT7" s="3"/>
       <c r="AU7" t="s">
@@ -2094,22 +2102,22 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>69</v>
@@ -2142,7 +2150,7 @@
         <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R8" t="s">
         <v>50</v>
@@ -2160,7 +2168,7 @@
         <v>94</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>69</v>
@@ -2169,7 +2177,7 @@
         <v>85</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>61</v>
@@ -2226,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT8" s="3"/>
       <c r="AU8" t="s">
@@ -2235,22 +2243,22 @@
     </row>
     <row r="9" spans="1:47">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>69</v>
@@ -2283,7 +2291,7 @@
         <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R9" t="s">
         <v>50</v>
@@ -2301,7 +2309,7 @@
         <v>94</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>69</v>
@@ -2310,7 +2318,7 @@
         <v>85</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>61</v>
@@ -2367,7 +2375,7 @@
         <v>60</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AT9" s="3"/>
       <c r="AU9" t="s">
